--- a/medicine/Enfance/The_Invisible_Intruder/The_Invisible_Intruder.xlsx
+++ b/medicine/Enfance/The_Invisible_Intruder/The_Invisible_Intruder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Invisible Intruder (littéralement : « L'intrus invisible ») est le quarante-sixième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur est Harriet Adams.
+The Invisible Intruder (littéralement : « L'intrus invisible ») est le quarante-sixième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur est Harriet Adams.
 Aux États-Unis, le roman a été publié pour la première fois en 1969 par Grosset &amp; Dunlap (New York).
 Il est inédit en France.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lire en ligne en anglais
 Alice et ses amis sont invitées à une chasse au fantômes par une ancienne camarade d'Alice, Helen. Ils visitent plusieurs lieux réputés hantés.
@@ -553,9 +567,11 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène (Helen Corning en VO), l'amie qui accompagnait Alice dans les premiers titres de la série, réapparaît dans ce roman. On y apprend qu'elle est maintenant mariée à Jim Archer et qu'elle s'appelle Helen Archer[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène (Helen Corning en VO), l'amie qui accompagnait Alice dans les premiers titres de la série, réapparaît dans ce roman. On y apprend qu'elle est maintenant mariée à Jim Archer et qu'elle s'appelle Helen Archer.
 </t>
         </is>
       </c>
@@ -584,11 +600,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy, avoué[3] de renom, père d'Alice Roy, veuf.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
